--- a/biology/Médecine/Troisième_métacarpien/Troisième_métacarpien.xlsx
+++ b/biology/Médecine/Troisième_métacarpien/Troisième_métacarpien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Troisième_métacarpien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le troisième métacarpien est est un os long du métacarpe situé à l'arrière du majeur. Il est relié au capitatum du carpe au niveau de la troisième articulation carpo-métacarpienne et à la phalange proximale du majeur au niveau de la troisième articulation métacarpo-phalangienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Troisième_métacarpien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le troisième métacarpien est plus court que le deuxième métacarpien.
-Base
-Sur la face dorsale de sa base se présente sur son côté radial une éminence pyramidale : le processus styloïde du troisième os métacarpien, qui s'étend vers le haut en arrière du capitatum. Dans la partie supérieure se trouve une surface rugueuse pour l'insertion du muscle court extenseur radial du carpe.
-La facette articulaire carpienne est concave en arrière, plate en avant et s'articule avec le capitatum.
-Du côté radial se trouve une facette lisse et concave pour l'articulation avec le deuxième métacarpien, et du côté ulnaire deux petites facettes ovales pour le quatrième métacarpien.
-Corps
-La diaphyse donne naissance aux deuxième et troisième muscle interosseux dorsaux de la main.
 </t>
         </is>
       </c>
@@ -530,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Troisième_métacarpien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +553,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la face dorsale de sa base se présente sur son côté radial une éminence pyramidale : le processus styloïde du troisième os métacarpien, qui s'étend vers le haut en arrière du capitatum. Dans la partie supérieure se trouve une surface rugueuse pour l'insertion du muscle court extenseur radial du carpe.
+La facette articulaire carpienne est concave en arrière, plate en avant et s'articule avec le capitatum.
+Du côté radial se trouve une facette lisse et concave pour l'articulation avec le deuxième métacarpien, et du côté ulnaire deux petites facettes ovales pour le quatrième métacarpien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Troisième_métacarpien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Troisi%C3%A8me_m%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse donne naissance aux deuxième et troisième muscle interosseux dorsaux de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Troisième_métacarpien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Troisi%C3%A8me_m%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus d'ossification commence dans la diaphyse pendant la vie prénatale et dans la tête entre le 11e et le 27e mois[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus d'ossification commence dans la diaphyse pendant la vie prénatale et dans la tête entre le 11e et le 27e mois.
 </t>
         </is>
       </c>
